--- a/experimento1.xlsx
+++ b/experimento1.xlsx
@@ -5,20 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgarciay/Desktop/Laval_Master_Computer/research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgarciay/Desktop/Laval_Master_Computer/research/Synthetic-Data-Deep-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E87D987-448C-2A47-8C20-2E54D30961DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1046E0-7CB4-104A-95C4-EF02711815CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="4100" windowWidth="27580" windowHeight="17500" activeTab="2" xr2:uid="{DFB239C8-EEA5-3943-A44C-3A2C10E6A7DD}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="16660" activeTab="2" xr2:uid="{DFB239C8-EEA5-3943-A44C-3A2C10E6A7DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Visit" sheetId="4" r:id="rId1"/>
     <sheet name="Patien" sheetId="1" r:id="rId2"/>
     <sheet name="conta" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="DEFENITION" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="DEFENITION" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Patien!$Z$2:$AC$2</definedName>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="129">
   <si>
     <t>Num Cluster</t>
   </si>
@@ -605,9 +604,6 @@
     <t>Kmean,</t>
   </si>
   <si>
-    <t>{'Name': 'cat_threshold .999 most frequent', 'mean_mutual_information': 0.06251909396436123, 'mean_ccscodes_randindex': 0.9282836423544186, 'silhouette_avg': 0.4087432202892939, 'davies_bouldin_avg': 2.863628479041885}</t>
-  </si>
-  <si>
     <t>Rand score</t>
   </si>
   <si>
@@ -635,36 +631,18 @@
     <t xml:space="preserve"># prepo / # cluster (4,8,12) </t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>sihouhate/davis bould</t>
   </si>
   <si>
     <t>Mutual infomation repetition, for other</t>
   </si>
   <si>
-    <t>mutual information ofr each one</t>
-  </si>
-  <si>
     <t>Rand index repetition, for other</t>
   </si>
   <si>
-    <t>Rand index information ofr each one</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>Prediction Readmission 30,90,180</t>
   </si>
   <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>Prediction</t>
-  </si>
-  <si>
     <t>To do:</t>
   </si>
   <si>
@@ -690,6 +668,15 @@
   </si>
   <si>
     <t>/Users/cgarciay/Desktop/Laval_Master_Computer/research/experiment_prepo</t>
+  </si>
+  <si>
+    <t>no aplica</t>
+  </si>
+  <si>
+    <t>DRUGS</t>
+  </si>
+  <si>
+    <t>progress</t>
   </si>
 </sst>
 </file>
@@ -805,12 +792,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFDBD9D9"/>
-      <name val="Menlo"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,6 +826,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1173,199 +1173,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1943,32 +1778,32 @@
       <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="106" t="s">
+      <c r="I1" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="99" t="s">
         <v>105</v>
-      </c>
-      <c r="J1" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="104" t="s">
-        <v>106</v>
       </c>
       <c r="R1" s="12"/>
       <c r="S1" s="63"/>
@@ -2004,26 +1839,26 @@
         <v>7</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="94">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="K2" s="95">
+      <c r="K2" s="39">
         <v>0.42299673863262</v>
       </c>
-      <c r="L2" s="95">
+      <c r="L2" s="39">
         <v>0.55903293783334596</v>
       </c>
-      <c r="M2" s="95">
+      <c r="M2" s="39">
         <v>0.55823751910075103</v>
       </c>
-      <c r="N2" s="95">
+      <c r="N2" s="39">
         <v>0.56262180698089204</v>
       </c>
-      <c r="O2" s="95">
+      <c r="O2" s="39">
         <v>0.426826493440078</v>
       </c>
       <c r="P2" s="77">
@@ -2049,32 +1884,32 @@
       <c r="AH2" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="AM2" s="105" t="s">
+      <c r="AM2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AN2" s="106" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO2" s="102" t="s">
+      <c r="AN2" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO2" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP2" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR2" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="AP2" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ2" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR2" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS2" s="103" t="s">
+      <c r="AS2" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="AT2" s="103" t="s">
+      <c r="AT2" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="AU2" s="104" t="s">
-        <v>106</v>
+      <c r="AU2" s="99" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -2096,28 +1931,28 @@
       <c r="F3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="94">
+      <c r="H3" s="4">
         <v>1520</v>
       </c>
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="96">
+      <c r="J3" s="92">
         <v>0.42299673863262</v>
       </c>
-      <c r="K3" s="97">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" s="95">
+      <c r="L3" s="39">
         <v>0.78920185613184002</v>
       </c>
-      <c r="M3" s="95">
+      <c r="M3" s="39">
         <v>0.69959167294826896</v>
       </c>
-      <c r="N3" s="95">
+      <c r="N3" s="39">
         <v>0.67685806856491704</v>
       </c>
-      <c r="O3" s="98">
+      <c r="O3" s="93">
         <v>0.97237013687667095</v>
       </c>
       <c r="P3" s="77">
@@ -2130,7 +1965,6 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="76"/>
       <c r="AB3" s="82"/>
-      <c r="AC3" s="110"/>
       <c r="AE3" s="4">
         <v>205</v>
       </c>
@@ -2143,26 +1977,26 @@
       <c r="AH3" s="39">
         <v>0.43774463745360898</v>
       </c>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO3" s="116">
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO3" s="105">
         <v>1.0016852627533901</v>
       </c>
-      <c r="AP3" s="110">
+      <c r="AP3">
         <v>5.67583462420517E-4</v>
       </c>
-      <c r="AQ3" s="110">
+      <c r="AQ3">
         <v>0.15041752626611901</v>
       </c>
-      <c r="AR3" s="110">
+      <c r="AR3">
         <v>0.14170242375936701</v>
       </c>
-      <c r="AS3" s="110">
+      <c r="AS3">
         <v>0.15197727571859301</v>
       </c>
-      <c r="AT3" s="110">
+      <c r="AT3">
         <v>5.2380786739662398E-4</v>
       </c>
       <c r="AU3" s="6">
@@ -2188,28 +2022,28 @@
       <c r="F4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="94">
+      <c r="H4" s="4">
         <v>205</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="96">
+      <c r="J4" s="92">
         <v>0.55903293783334596</v>
       </c>
-      <c r="K4" s="95">
+      <c r="K4" s="39">
         <v>0.78920185613184002</v>
       </c>
-      <c r="L4" s="97">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="95">
+      <c r="M4" s="39">
         <v>0.87314268079459101</v>
       </c>
-      <c r="N4" s="95">
+      <c r="N4" s="39">
         <v>0.84397844602820804</v>
       </c>
-      <c r="O4" s="95">
+      <c r="O4" s="39">
         <v>0.78273178059006798</v>
       </c>
       <c r="P4" s="77">
@@ -2235,28 +2069,28 @@
       <c r="AH4" s="39">
         <v>0.34992927390438899</v>
       </c>
-      <c r="AM4" s="94">
+      <c r="AM4" s="4">
         <v>1520</v>
       </c>
-      <c r="AN4" s="108" t="s">
+      <c r="AN4" s="16" t="s">
         <v>53</v>
       </c>
       <c r="AO4" s="4">
         <v>5.67583462420517E-4</v>
       </c>
-      <c r="AP4" s="111">
+      <c r="AP4" s="100">
         <v>2.0326633312379699E-2</v>
       </c>
-      <c r="AQ4" s="110">
+      <c r="AQ4">
         <v>4.3200419689817598E-4</v>
       </c>
-      <c r="AR4" s="110">
+      <c r="AR4">
         <v>4.6889174734940999E-4</v>
       </c>
-      <c r="AS4" s="110">
+      <c r="AS4">
         <v>4.6472602987453801E-4</v>
       </c>
-      <c r="AT4" s="110">
+      <c r="AT4">
         <v>3.1470210782937703E-5</v>
       </c>
       <c r="AU4" s="6">
@@ -2276,31 +2110,31 @@
         <v>38</v>
       </c>
       <c r="F5" s="36"/>
-      <c r="H5" s="108">
+      <c r="H5" s="16">
         <v>428</v>
       </c>
-      <c r="I5" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="96">
+      <c r="I5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="92">
         <v>0.55823751910075103</v>
       </c>
-      <c r="K5" s="95">
+      <c r="K5" s="39">
         <v>0.69959167294826896</v>
       </c>
-      <c r="L5" s="98">
+      <c r="L5" s="93">
         <v>0.87314268079459101</v>
       </c>
-      <c r="M5" s="97">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="N5" s="98">
+      <c r="N5" s="93">
         <v>0.93527839620459596</v>
       </c>
-      <c r="O5" s="95">
+      <c r="O5" s="39">
         <v>0.69697465623924104</v>
       </c>
-      <c r="P5" s="100">
+      <c r="P5" s="95">
         <v>0.86043011687827098</v>
       </c>
       <c r="R5" s="16"/>
@@ -2320,31 +2154,31 @@
       <c r="AG5" s="39">
         <v>0.92106925084275704</v>
       </c>
-      <c r="AH5" s="95">
+      <c r="AH5" s="39">
         <v>0.26721768910098298</v>
       </c>
-      <c r="AM5" s="94">
+      <c r="AM5" s="4">
         <v>205</v>
       </c>
-      <c r="AN5" s="108" t="s">
+      <c r="AN5" s="16" t="s">
         <v>54</v>
       </c>
       <c r="AO5" s="4">
         <v>0.15041752626611901</v>
       </c>
-      <c r="AP5" s="110">
+      <c r="AP5">
         <v>4.3200419689817598E-4</v>
       </c>
-      <c r="AQ5" s="111">
+      <c r="AQ5" s="100">
         <v>0.36422930576808998</v>
       </c>
-      <c r="AR5" s="110">
+      <c r="AR5">
         <v>0.25919713300770197</v>
       </c>
-      <c r="AS5" s="110">
+      <c r="AS5">
         <v>0.240721348104035</v>
       </c>
-      <c r="AT5" s="110">
+      <c r="AT5">
         <v>6.5885052548002396E-4</v>
       </c>
       <c r="AU5" s="6">
@@ -2370,28 +2204,28 @@
       <c r="F6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="108">
+      <c r="H6" s="16">
         <v>219</v>
       </c>
       <c r="I6" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="99">
+      <c r="J6" s="94">
         <v>0.56262180698089204</v>
       </c>
-      <c r="K6" s="95">
+      <c r="K6" s="39">
         <v>0.67685806856491704</v>
       </c>
-      <c r="L6" s="95">
+      <c r="L6" s="39">
         <v>0.84397844602820804</v>
       </c>
-      <c r="M6" s="98">
+      <c r="M6" s="93">
         <v>0.93527839620459596</v>
       </c>
-      <c r="N6" s="95">
+      <c r="N6" s="39">
         <v>1</v>
       </c>
-      <c r="O6" s="95">
+      <c r="O6" s="39">
         <v>0.67418820969710602</v>
       </c>
       <c r="P6" s="77">
@@ -2419,31 +2253,31 @@
       <c r="AH6" s="39">
         <v>9.80546504122667E-2</v>
       </c>
-      <c r="AM6" s="108">
+      <c r="AM6" s="16">
         <v>428</v>
       </c>
-      <c r="AN6" s="108" t="s">
-        <v>108</v>
+      <c r="AN6" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="AO6" s="4">
         <v>0.14170242375936701</v>
       </c>
-      <c r="AP6" s="110">
+      <c r="AP6">
         <v>4.6889174734940999E-4</v>
       </c>
-      <c r="AQ6" s="112">
+      <c r="AQ6" s="101">
         <v>0.25919713300770197</v>
       </c>
-      <c r="AR6" s="111">
+      <c r="AR6" s="100">
         <v>0.57403010513637198</v>
       </c>
-      <c r="AS6" s="112">
+      <c r="AS6" s="101">
         <v>0.45228329960715102</v>
       </c>
-      <c r="AT6" s="112">
+      <c r="AT6" s="101">
         <v>2.2044660477359901E-3</v>
       </c>
-      <c r="AU6" s="113">
+      <c r="AU6" s="102">
         <v>0.286099277229519</v>
       </c>
     </row>
@@ -2466,28 +2300,28 @@
       <c r="F7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="108">
+      <c r="H7" s="16">
         <v>699</v>
       </c>
       <c r="I7" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="96">
+      <c r="J7" s="92">
         <v>0.426826493440078</v>
       </c>
-      <c r="K7" s="98">
+      <c r="K7" s="93">
         <v>0.97237013687667095</v>
       </c>
-      <c r="L7" s="95">
+      <c r="L7" s="39">
         <v>0.78273178059006798</v>
       </c>
-      <c r="M7" s="95">
+      <c r="M7" s="39">
         <v>0.69697465623924104</v>
       </c>
-      <c r="N7" s="95">
+      <c r="N7" s="39">
         <v>0.67418820969710602</v>
       </c>
-      <c r="O7" s="97">
+      <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" s="77">
@@ -2502,7 +2336,6 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="75"/>
       <c r="AB7" s="39"/>
-      <c r="AC7" s="110"/>
       <c r="AE7" s="4">
         <v>699</v>
       </c>
@@ -2515,28 +2348,28 @@
       <c r="AH7" s="65">
         <v>0.37719873907252</v>
       </c>
-      <c r="AM7" s="108">
+      <c r="AM7" s="16">
         <v>219</v>
       </c>
       <c r="AN7" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="AO7" s="117">
+      <c r="AO7" s="106">
         <v>0.15197727571859301</v>
       </c>
-      <c r="AP7" s="110">
+      <c r="AP7">
         <v>4.6472602987453801E-4</v>
       </c>
-      <c r="AQ7" s="110">
+      <c r="AQ7">
         <v>0.240721348104035</v>
       </c>
-      <c r="AR7" s="110">
+      <c r="AR7">
         <v>0.45228329960715102</v>
       </c>
-      <c r="AS7" s="111">
+      <c r="AS7" s="100">
         <v>0.63531839184825001</v>
       </c>
-      <c r="AT7" s="110">
+      <c r="AT7">
         <v>1.93196454011408E-3</v>
       </c>
       <c r="AU7" s="6">
@@ -2562,13 +2395,13 @@
       <c r="F8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="11">
         <v>1445</v>
       </c>
       <c r="I8" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="101">
+        <v>105</v>
+      </c>
+      <c r="J8" s="96">
         <v>0.48926978398815002</v>
       </c>
       <c r="K8" s="44">
@@ -2586,7 +2419,7 @@
       <c r="O8" s="44">
         <v>0.78335303128586498</v>
       </c>
-      <c r="P8" s="93">
+      <c r="P8" s="8">
         <v>1</v>
       </c>
       <c r="R8" s="11"/>
@@ -2612,7 +2445,7 @@
       <c r="AH8" s="85">
         <v>0.115072025760015</v>
       </c>
-      <c r="AM8" s="108">
+      <c r="AM8" s="16">
         <v>699</v>
       </c>
       <c r="AN8" s="65" t="s">
@@ -2621,19 +2454,19 @@
       <c r="AO8" s="4">
         <v>5.2380786739662398E-4</v>
       </c>
-      <c r="AP8" s="110">
+      <c r="AP8">
         <v>3.1470210782937703E-5</v>
       </c>
-      <c r="AQ8" s="110">
+      <c r="AQ8">
         <v>6.5885052548002396E-4</v>
       </c>
-      <c r="AR8" s="110">
+      <c r="AR8">
         <v>2.2044660477359901E-3</v>
       </c>
-      <c r="AS8" s="110">
+      <c r="AS8">
         <v>1.93196454011408E-3</v>
       </c>
-      <c r="AT8" s="111">
+      <c r="AT8" s="100">
         <v>6.5889136847957899E-2</v>
       </c>
       <c r="AU8" s="6">
@@ -2651,22 +2484,22 @@
       <c r="AA9" s="86"/>
       <c r="AB9" s="86"/>
       <c r="AC9" s="86"/>
-      <c r="AM9" s="109">
+      <c r="AM9" s="11">
         <v>1445</v>
       </c>
       <c r="AN9" s="85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AO9" s="7">
         <v>5.3270960610149701E-2</v>
       </c>
-      <c r="AP9" s="115">
+      <c r="AP9" s="104">
         <v>7.7353395081989403E-4</v>
       </c>
       <c r="AQ9" s="58">
         <v>9.1945337862595206E-2</v>
       </c>
-      <c r="AR9" s="115">
+      <c r="AR9" s="104">
         <v>0.286099277229519</v>
       </c>
       <c r="AS9" s="58">
@@ -2675,7 +2508,7 @@
       <c r="AT9" s="58">
         <v>7.4109303159976595E-4</v>
       </c>
-      <c r="AU9" s="114">
+      <c r="AU9" s="103">
         <v>0.436701715546984</v>
       </c>
     </row>
@@ -3122,33 +2955,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C17:C20 C1 C10:C11 C22:C1048576">
-    <cfRule type="top10" dxfId="36" priority="27" rank="1"/>
-    <cfRule type="top10" dxfId="35" priority="28" rank="2"/>
+    <cfRule type="top10" dxfId="20" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D1048576 D1">
-    <cfRule type="top10" dxfId="34" priority="26" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="33" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="18" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="17" priority="26" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:P1">
+    <cfRule type="top10" dxfId="16" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="15" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="20" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:P8">
+    <cfRule type="top10" dxfId="13" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="23" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:P1048576">
-    <cfRule type="top10" dxfId="32" priority="25" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:P8">
-    <cfRule type="top10" dxfId="31" priority="23" rank="3"/>
-    <cfRule type="top10" dxfId="30" priority="24" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:P1">
-    <cfRule type="top10" dxfId="29" priority="22" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:P1">
-    <cfRule type="top10" dxfId="28" priority="20" rank="3"/>
-    <cfRule type="top10" dxfId="27" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="11" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AU2">
-    <cfRule type="top10" dxfId="23" priority="16" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO2:AU2">
-    <cfRule type="top10" dxfId="22" priority="14" rank="3"/>
-    <cfRule type="top10" dxfId="21" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="10" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="8" priority="14" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3325,7 +3154,7 @@
       <c r="AL2">
         <v>183</v>
       </c>
-      <c r="AM2" s="92">
+      <c r="AM2" s="91">
         <f>+AL2/$AL$7</f>
         <v>0.12039473684210526</v>
       </c>
@@ -3397,7 +3226,7 @@
       <c r="AL3">
         <v>219</v>
       </c>
-      <c r="AM3" s="92">
+      <c r="AM3" s="91">
         <f t="shared" ref="AM3:AM7" si="0">+AL3/$AL$7</f>
         <v>0.14407894736842106</v>
       </c>
@@ -3473,7 +3302,7 @@
       <c r="AL4">
         <v>428</v>
       </c>
-      <c r="AM4" s="92">
+      <c r="AM4" s="91">
         <f t="shared" si="0"/>
         <v>0.28157894736842104</v>
       </c>
@@ -3555,7 +3384,7 @@
       <c r="AL5">
         <v>699</v>
       </c>
-      <c r="AM5" s="92">
+      <c r="AM5" s="91">
         <f t="shared" si="0"/>
         <v>0.45986842105263159</v>
       </c>
@@ -3643,7 +3472,7 @@
       <c r="AL6">
         <v>1445</v>
       </c>
-      <c r="AM6" s="92">
+      <c r="AM6" s="91">
         <f t="shared" si="0"/>
         <v>0.95065789473684215</v>
       </c>
@@ -3737,7 +3566,7 @@
       <c r="AL7">
         <v>1520</v>
       </c>
-      <c r="AM7" s="92">
+      <c r="AM7" s="91">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4852,7 +4681,7 @@
       <c r="C55" s="57">
         <v>3209</v>
       </c>
-      <c r="D55" s="91">
+      <c r="D55" s="90">
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
@@ -5016,10 +4845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA8950D-C44F-9443-9DD5-694E936CB8FD}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5028,132 +4857,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" t="s">
-        <v>125</v>
-      </c>
+      <c r="A1" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="107" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9953CAC1-ED16-4E4E-8F79-469A188A3885}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68223A3-258D-DD4F-9983-D10BEFB76C26}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -5184,7 +4971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5172615-1A96-CD44-9BA4-B7AECF43076F}">
   <dimension ref="A1:D14"/>
   <sheetViews>

--- a/experimento1.xlsx
+++ b/experimento1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgarciay/Desktop/Laval_Master_Computer/research/Synthetic-Data-Deep-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1046E0-7CB4-104A-95C4-EF02711815CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326F8D4-AE71-0847-821D-6F4E93D00DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="16660" activeTab="2" xr2:uid="{DFB239C8-EEA5-3943-A44C-3A2C10E6A7DD}"/>
+    <workbookView xWindow="17340" yWindow="2920" windowWidth="27580" windowHeight="16660" activeTab="2" xr2:uid="{DFB239C8-EEA5-3943-A44C-3A2C10E6A7DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Visit" sheetId="4" r:id="rId1"/>
@@ -43,8 +43,27 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AEE7E9BA-9D71-A24B-A9F8-7A4240AE7161}</author>
+  </authors>
+  <commentList>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{AEE7E9BA-9D71-A24B-A9F8-7A4240AE7161}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mutual information y prediction depende de input_pred
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="137">
   <si>
     <t>Num Cluster</t>
   </si>
@@ -676,7 +695,31 @@
     <t>DRUGS</t>
   </si>
   <si>
-    <t>progress</t>
+    <t xml:space="preserve">all patiente </t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>falta verificar resultados. Y descargarlos</t>
+  </si>
+  <si>
+    <t>done/faltan verificar imagens</t>
+  </si>
+  <si>
+    <t>input_pred</t>
   </si>
 </sst>
 </file>
@@ -686,7 +729,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -792,13 +835,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B0F0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,6 +887,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1192,10 +1259,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1422,6 +1498,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Cynthia Garcia Ybarra" id="{2295DD88-F75F-2E4D-A282-3576C62FE40D}" userId="S::1044582@onuriscp.com::40a6c9ab-80b1-4495-b023-2438747b0e4d" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1719,6 +1801,15 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A7" dT="2024-02-04T18:03:22.67" personId="{2295DD88-F75F-2E4D-A282-3576C62FE40D}" id="{AEE7E9BA-9D71-A24B-A9F8-7A4240AE7161}">
+    <text xml:space="preserve">Mutual information y prediction depende de input_pred
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E19C8B-A3A7-A84C-B659-3BAB8B90A266}">
   <dimension ref="A1:AU54"/>
@@ -2959,25 +3050,25 @@
     <cfRule type="top10" dxfId="19" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D1048576 D1">
-    <cfRule type="top10" dxfId="18" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="17" priority="26" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="26" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="29" bottom="1" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:P1">
-    <cfRule type="top10" dxfId="16" priority="21" rank="2"/>
-    <cfRule type="top10" dxfId="15" priority="22" rank="1"/>
-    <cfRule type="top10" dxfId="14" priority="20" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="20" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="14" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:P8">
-    <cfRule type="top10" dxfId="13" priority="24" rank="2"/>
-    <cfRule type="top10" dxfId="12" priority="23" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="23" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="24" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:P1048576">
     <cfRule type="top10" dxfId="11" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AU2">
-    <cfRule type="top10" dxfId="10" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="14" rank="3"/>
     <cfRule type="top10" dxfId="9" priority="15" rank="2"/>
-    <cfRule type="top10" dxfId="8" priority="14" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="16" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4844,11 +4935,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA8950D-C44F-9443-9DD5-694E936CB8FD}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA8950D-C44F-9443-9DD5-694E936CB8FD}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4856,87 +4947,377 @@
     <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="100" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="113"/>
+      <c r="C9" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="101" t="s">
+      <c r="B10" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="H4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="107" t="s">
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="107" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="107" t="s">
+      <c r="B13" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="107" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="108" t="s">
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B15" s="115"/>
+      <c r="C15" s="109" t="s">
         <v>126</v>
+      </c>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19">
+        <f>220*12</f>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="111" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/experimento1.xlsx
+++ b/experimento1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgarciay/Desktop/Laval_Master_Computer/research/Synthetic-Data-Deep-Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326F8D4-AE71-0847-821D-6F4E93D00DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E79123F-3E8F-B64A-826A-F68514563838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="2920" windowWidth="27580" windowHeight="16660" activeTab="2" xr2:uid="{DFB239C8-EEA5-3943-A44C-3A2C10E6A7DD}"/>
+    <workbookView xWindow="10820" yWindow="2920" windowWidth="27580" windowHeight="16660" activeTab="2" xr2:uid="{DFB239C8-EEA5-3943-A44C-3A2C10E6A7DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Visit" sheetId="4" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="136">
   <si>
     <t>Num Cluster</t>
   </si>
@@ -713,9 +713,6 @@
     <t>running</t>
   </si>
   <si>
-    <t>falta verificar resultados. Y descargarlos</t>
-  </si>
-  <si>
     <t>done/faltan verificar imagens</t>
   </si>
   <si>
@@ -729,7 +726,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -839,12 +836,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1264,14 +1255,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3050,25 +3041,25 @@
     <cfRule type="top10" dxfId="19" priority="28" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D1048576 D1">
-    <cfRule type="top10" dxfId="18" priority="26" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="17" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="18" priority="29" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="17" priority="26" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:P1">
-    <cfRule type="top10" dxfId="16" priority="20" rank="3"/>
-    <cfRule type="top10" dxfId="15" priority="21" rank="2"/>
-    <cfRule type="top10" dxfId="14" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="21" rank="2"/>
+    <cfRule type="top10" dxfId="15" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="20" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:P8">
-    <cfRule type="top10" dxfId="13" priority="23" rank="3"/>
-    <cfRule type="top10" dxfId="12" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="13" priority="24" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="23" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:P1048576">
     <cfRule type="top10" dxfId="11" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AU2">
-    <cfRule type="top10" dxfId="10" priority="14" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="16" rank="1"/>
     <cfRule type="top10" dxfId="9" priority="15" rank="2"/>
-    <cfRule type="top10" dxfId="8" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="14" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4939,7 +4930,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4953,9 +4944,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4988,10 +4979,10 @@
         <v>112</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="100"/>
       <c r="E4" s="100" t="s">
@@ -5012,13 +5003,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="100" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D5" s="100"/>
       <c r="E5" s="100"/>
@@ -5050,12 +5041,8 @@
       <c r="A7" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="100" t="s">
-        <v>134</v>
-      </c>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="100"/>
       <c r="E7" s="100"/>
       <c r="F7" s="100"/>
@@ -5084,7 +5071,7 @@
       <c r="A9" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="113"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="100" t="s">
         <v>126</v>
       </c>
@@ -5102,10 +5089,10 @@
         <v>112</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="109"/>
       <c r="E10" s="109"/>
@@ -5118,14 +5105,12 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="109" t="s">
-        <v>132</v>
-      </c>
+      <c r="C11" s="109"/>
       <c r="D11" s="109"/>
       <c r="E11" s="109"/>
       <c r="F11" s="109"/>
@@ -5155,11 +5140,9 @@
         <v>114</v>
       </c>
       <c r="B13" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="100" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C13" s="100"/>
       <c r="D13" s="109"/>
       <c r="E13" s="109"/>
       <c r="F13" s="109"/>
@@ -5188,7 +5171,7 @@
       <c r="A15" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="115"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="109" t="s">
         <v>126</v>
       </c>
@@ -5205,37 +5188,35 @@
       <c r="A16" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114" t="s">
+      <c r="B16" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114" t="s">
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5261,9 +5242,7 @@
       <c r="B19" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="110" t="s">
-        <v>132</v>
-      </c>
+      <c r="C19" s="110"/>
       <c r="D19" s="110"/>
       <c r="E19" s="110"/>
       <c r="F19" s="110"/>
@@ -5296,7 +5275,7 @@
       <c r="A21" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="112" t="s">
         <v>133</v>
       </c>
       <c r="C21" s="109" t="s">
